--- a/NformTester/NformTester/Keywordscripts/600.10.30.130_ImportDeviceFromFlatFileWithSpecifiedSeparator.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.130_ImportDeviceFromFlatFileWithSpecifiedSeparator.xlsx
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7429" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7433" uniqueCount="828">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4688,10 +4688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4898,7 +4898,7 @@
         <v>774</v>
       </c>
       <c r="B7" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -6098,10 +6098,10 @@
         <v>800</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>375</v>
+        <v>17</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>2</v>
@@ -6126,12 +6126,12 @@
         <v>602</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>603</v>
+        <v>375</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="11"/>
+      <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -6145,15 +6145,17 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>826</v>
+        <v>800</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>827</v>
-      </c>
-      <c r="F54" s="5">
-        <v>40</v>
-      </c>
-      <c r="G54" s="5"/>
+        <v>602</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H54" s="11"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -6168,18 +6170,16 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H55" s="5"/>
+        <v>827</v>
+      </c>
+      <c r="F55" s="5">
+        <v>40</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="11"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -6202,7 +6202,7 @@
         <v>17</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -6221,10 +6221,10 @@
         <v>800</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>801</v>
+        <v>622</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>2</v>
@@ -6238,16 +6238,22 @@
       <c r="N57" s="7"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="3:15" ht="15">
+    <row r="58" spans="3:15">
       <c r="C58" s="5">
         <v>57</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="D58" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -6257,22 +6263,16 @@
       <c r="N58" s="7"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="3:15">
+    <row r="59" spans="3:15" ht="15">
       <c r="C59" s="5">
         <v>58</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D59" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -6293,7 +6293,7 @@
         <v>19</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>809</v>
+        <v>22</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>2</v>
@@ -6315,17 +6315,15 @@
         <v>800</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>801</v>
+        <v>19</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>578</v>
+        <v>809</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>823</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -6351,7 +6349,7 @@
         <v>59</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -6372,12 +6370,14 @@
         <v>801</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>99</v>
+        <v>578</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>824</v>
+      </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -6386,16 +6386,22 @@
       <c r="N63" s="7"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="3:15" ht="15">
+    <row r="64" spans="3:15">
       <c r="C64" s="5">
         <v>63</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+      <c r="D64" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -6405,16 +6411,16 @@
       <c r="N64" s="7"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="3:14" ht="15">
+    <row r="65" spans="3:15" ht="15">
       <c r="C65" s="5">
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -6422,32 +6428,27 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="7"/>
+      <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="3:14">
+    <row r="66" spans="3:15" ht="15">
       <c r="C66" s="5">
         <v>65</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
+      <c r="D66" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="7"/>
     </row>
-    <row r="67" spans="3:14">
+    <row r="67" spans="3:15">
       <c r="C67" s="5">
         <v>66</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>2</v>
@@ -6471,33 +6472,31 @@
       <c r="M67" s="5"/>
       <c r="N67" s="7"/>
     </row>
-    <row r="68" spans="3:14">
+    <row r="68" spans="3:15">
       <c r="C68" s="5">
         <v>67</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>811</v>
+        <v>19</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>578</v>
+        <v>78</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="I68" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="17"/>
+      <c r="N68" s="7"/>
     </row>
-    <row r="69" spans="3:14" ht="14.25">
+    <row r="69" spans="3:15">
       <c r="C69" s="5">
         <v>68</v>
       </c>
@@ -6508,12 +6507,14 @@
         <v>811</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>184</v>
+        <v>578</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>804</v>
+      </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -6521,23 +6522,23 @@
       <c r="M69" s="5"/>
       <c r="N69" s="17"/>
     </row>
-    <row r="70" spans="3:14">
+    <row r="70" spans="3:15" ht="14.25">
       <c r="C70" s="5">
         <v>69</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>585</v>
+      <c r="E70" s="11" t="s">
+        <v>811</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="11"/>
+      <c r="H70" s="18"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -6545,33 +6546,57 @@
       <c r="M70" s="5"/>
       <c r="N70" s="17"/>
     </row>
-    <row r="71" spans="3:14">
+    <row r="71" spans="3:15">
       <c r="C71" s="5">
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="E71" s="11" t="s">
-        <v>811</v>
+      <c r="E71" s="5" t="s">
+        <v>585</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
+      <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
-      <c r="N71" s="7"/>
+      <c r="N71" s="17"/>
+    </row>
+    <row r="72" spans="3:15">
+      <c r="C72" s="5">
+        <v>71</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N71">
+  <conditionalFormatting sqref="N2:N72">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6580,16 +6605,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13 G15:G22 G69:G71 G24:G67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13 G15:G22 G70:G72 G24:G68">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D66:D67 D3:D4 D7:D9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D67:D68 D3:D4 D7:D9">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E72">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F72">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.10.30.130_ImportDeviceFromFlatFileWithSpecifiedSeparator.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.130_ImportDeviceFromFlatFileWithSpecifiedSeparator.xlsx
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7433" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7435" uniqueCount="830">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3716,13 +3716,6 @@
     <t>$SNMP_device_1$</t>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_1_NAME$</t>
-  </si>
-  <si>
     <t>"C:\Nform\user\export\6001030130_Device.csv"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3733,6 +3726,19 @@
   <si>
     <t>Pause</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_1$</t>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -3899,7 +3905,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3910,8 +3916,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3957,10 +3966,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4691,7 +4705,7 @@
   <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4920,7 +4934,7 @@
         <v>821</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>797</v>
@@ -4959,7 +4973,7 @@
         <v>822</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>797</v>
@@ -5191,7 +5205,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5376,6 +5390,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
+      <c r="A23" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>829</v>
+      </c>
       <c r="C23" s="5">
         <v>22</v>
       </c>
@@ -5563,7 +5583,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5738,7 +5758,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5884,7 +5904,7 @@
         <v>4</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -6030,7 +6050,7 @@
         <v>4</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -6170,10 +6190,10 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F55" s="5">
         <v>40</v>
@@ -6349,7 +6369,7 @@
         <v>59</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -6376,7 +6396,7 @@
         <v>59</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
